--- a/21-Spreads4Tests/Dipole-12C6.xlsx
+++ b/21-Spreads4Tests/Dipole-12C6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2053327561219/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{76F80D9F-FF15-D44C-AC7F-2BD670D02862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3044AA77-4CA9-9849-A501-EC3F8CAC34B5}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{76F80D9F-FF15-D44C-AC7F-2BD670D02862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F659B647-792E-4A44-AC2A-F5C411B08042}"/>
   <bookViews>
     <workbookView xWindow="15200" yWindow="920" windowWidth="14880" windowHeight="18580" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -635,6 +635,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,10 +666,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210C9CAF-347D-914C-A112-6F8981E6D7C0}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,31 +1004,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="27"/>
       <c r="E2" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -1203,16 +1211,16 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="1"/>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="38">
         <v>11174.8</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -1220,13 +1228,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="48">
         <f>B4+B5*B32</f>
         <v>11228.243684007597</v>
       </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="1"/>
       <c r="H11" s="10" t="s">
         <v>8</v>
@@ -1239,13 +1248,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="49">
         <f>SQRT(B11^2 -I10^ 2)</f>
         <v>1094.2125878715335</v>
       </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1"/>
       <c r="H12" s="5" t="s">
         <v>10</v>
@@ -1259,14 +1269,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="48">
         <f>B12*I13/1000</f>
         <v>3.649900318277965</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1"/>
@@ -1282,14 +1292,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <f>B13/E3</f>
         <v>7.29980063655593</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1"/>
